--- a/人事/市场招聘信息录入.xlsx
+++ b/人事/市场招聘信息录入.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,31 +54,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>112001215514455xxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6225xxxxxxxxxxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行xxxxx分行</t>
+    <t>耿远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡立强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410802198809270013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214851216031661</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行上海分行高安支行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +121,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -130,11 +137,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -208,6 +220,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -242,6 +255,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,24 +431,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="31.75" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,24 +468,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -482,146 +507,146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="5" spans="2:15">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="L5" s="1" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -636,12 +661,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/人事/市场招聘信息录入.xlsx
+++ b/人事/市场招聘信息录入.xlsx
@@ -11,12 +11,12 @@
     <sheet name="身份证" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,32 @@
   <si>
     <t>招商银行上海分行高安支行</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高国强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214833115290291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130133198906270057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省石家庄市广安大街支行</t>
+  </si>
+  <si>
+    <t>370302198110283670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214835334444187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博分行营业部</t>
   </si>
 </sst>
 </file>
@@ -432,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -445,7 +471,7 @@
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="31.75" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -497,6 +523,35 @@
       </c>
       <c r="C3" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/人事/市场招聘信息录入.xlsx
+++ b/人事/市场招聘信息录入.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,50 +63,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耿远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡立强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410802198809270013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6214851216031661</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>招商银行上海分行高安支行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高国强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6214833115290291</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>130133198906270057</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北省石家庄市广安大街支行</t>
-  </si>
-  <si>
-    <t>370302198110283670</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6214835334444187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淄博分行营业部</t>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410802199009270014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214851216938273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南驻马店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.3.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.3.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计薪工作日数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -159,7 +170,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,23 +469,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="31.75" customWidth="1"/>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="11" max="11" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,79 +496,74 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
+      <c r="K2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -569,9 +575,9 @@
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -591,7 +597,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -605,7 +611,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -619,7 +625,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -633,7 +639,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -647,7 +653,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -661,7 +667,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -675,7 +681,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -689,7 +695,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -711,7 +717,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -721,10 +732,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/人事/市场招聘信息录入.xlsx
+++ b/人事/市场招聘信息录入.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="身份证" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,63 +58,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>耿远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡立强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410802198809270013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214851216031661</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>招商银行上海分行高安支行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410802199009270014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6214851216938273</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>高国强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214833115290291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130133198906270057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省石家庄市广安大街支行</t>
+  </si>
+  <si>
+    <t>370302198110283670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214835334444187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博分行营业部</t>
   </si>
   <si>
     <t>入职时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2018.3.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.3.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>离职时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>河南驻马店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.3.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.3.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计薪工作日数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huliqiang@yddoo.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gengyuan@yddoo.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaoguoqiang@yddoo.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kent@yddoo.com</t>
+  </si>
+  <si>
+    <t>362324198902170015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林君然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51030319861221052X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214830158958917</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickole@yddoo.com</t>
+  </si>
+  <si>
+    <t>6214830222727421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13383912875</t>
+  </si>
+  <si>
+    <t>15230115011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜志飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37148119880205853X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214835300403621</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duzf@yddoo.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13864368268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18910102233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南市济洛路支行</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +232,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,25 +258,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,101 +600,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="31.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="26.125" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2">
+        <v>18518987171</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2">
+        <v>18678304111</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1"/>
+    <hyperlink ref="J4" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4" display="mailto:kent@yddoo.com"/>
+    <hyperlink ref="J6" r:id="rId5" display="mailto:nickole@yddoo.com"/>
+    <hyperlink ref="J7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -575,139 +992,139 @@
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="5" spans="2:15">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="L5" s="2" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="L5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -717,12 +1134,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -732,15 +1144,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/人事/市场招聘信息录入.xlsx
+++ b/人事/市场招聘信息录入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,69 @@
   </si>
   <si>
     <t>济南市济洛路支行</t>
+  </si>
+  <si>
+    <t>牛文朋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨治浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨潘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130421199005160315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130421199006040315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214833722296665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410882198902085017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214833792715933</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214833722296673</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niuwp@yddoo.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangpan@yddoo.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangzhihao@yddoo.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19903103090</t>
+  </si>
+  <si>
+    <t>安阳分行营业部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -603,7 +666,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -826,44 +889,95 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1">
+        <v>13703103454</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1">
+        <v>15978702520</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -978,9 +1092,12 @@
     <hyperlink ref="J5" r:id="rId4" display="mailto:kent@yddoo.com"/>
     <hyperlink ref="J6" r:id="rId5" display="mailto:nickole@yddoo.com"/>
     <hyperlink ref="J7" r:id="rId6"/>
+    <hyperlink ref="J10" r:id="rId7"/>
+    <hyperlink ref="J9" r:id="rId8"/>
+    <hyperlink ref="J8" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId10"/>
 </worksheet>
 </file>
 
